--- a/data/listados/Cercano/L_C_Raices del Manglar.xlsx
+++ b/data/listados/Cercano/L_C_Raices del Manglar.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2ef5c481a427bbc/Trabajo/Value Creation Analytics SAS/Clientes/ICESI/Producto 3. TrabajoCampoyAnalisis/3. Listados/Cercano/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/listados/Cercano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="11_D1712D4549D789A2B92588A6C9168AD3C29EF506" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCD6CA29-FA73-4380-8B12-927578FB4381}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="11_D1712D4549D789A2B92588A6C9168AD3C29EF506" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6AA906-B862-4091-956D-FC12D685DA79}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="6098" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="-11640" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="cercano" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -438,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,16 +842,16 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -860,7 +860,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -894,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -911,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
@@ -945,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -962,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
@@ -979,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
@@ -996,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>43</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>57</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>59</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>62</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>73</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>75</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>78</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>80</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>84</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>87</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>90</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>93</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>96</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>99</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>101</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>104</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>107</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>110</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>113</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>115</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>117</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>119</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>121</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>122</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>124</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>125</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>126</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>129</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
